--- a/excel-output/REPORT-MSC-20210928.xlsx
+++ b/excel-output/REPORT-MSC-20210928.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="588">
   <si>
     <t>Container No</t>
   </si>
@@ -1706,7 +1706,7 @@
     <t>PRINCIPAL: MSC</t>
   </si>
   <si>
-    <t>2021-09-28 09:44:01</t>
+    <t>2021-09-28 11:57:09</t>
   </si>
   <si>
     <t>TYPE CNTR</t>
@@ -1779,6 +1779,12 @@
   </si>
   <si>
     <t>DAILY CONTAINER STOCK AND MOVEMENT REPORT</t>
+  </si>
+  <si>
+    <t>TOTAL (BOXES)</t>
+  </si>
+  <si>
+    <t>TOTAL (TEUS)</t>
   </si>
 </sst>
 </file>
@@ -19308,13 +19314,13 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="37" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -20420,7 +20426,7 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>586</v>
       </c>
       <c r="B16" s="8">
         <v>280</v>
@@ -20531,8 +20537,122 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:37">
+      <c r="A17" t="s">
+        <v>587</v>
+      </c>
+      <c r="B17" s="8">
+        <f>SUM(C16+D16)*2+B16</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>2</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8">
+        <v>8</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>266</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>150</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>116</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
@@ -20559,13 +20679,14 @@
     <mergeCell ref="AC7:AE7"/>
     <mergeCell ref="AF7:AH7"/>
     <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:AK4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:AK16">
+  <conditionalFormatting sqref="A5:AK17">
     <cfRule type="notContainsErrors" dxfId="1" priority="2">
       <formula>NOT(ISERROR(A5))</formula>
     </cfRule>

--- a/excel-output/REPORT-MSC-20210928.xlsx
+++ b/excel-output/REPORT-MSC-20210928.xlsx
@@ -1706,7 +1706,7 @@
     <t>PRINCIPAL: MSC</t>
   </si>
   <si>
-    <t>2021-09-28 15:26:44</t>
+    <t>2021-09-28 16:37:40</t>
   </si>
   <si>
     <t>TYPE CNTR</t>
@@ -20541,118 +20541,69 @@
       <c r="A17" t="s">
         <v>587</v>
       </c>
-      <c r="B17" s="8">
-        <f>SUM(C16+D16)*2+B16</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="10">
+        <v>282</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>1</v>
       </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10">
         <v>2</v>
       </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>2</v>
-      </c>
-      <c r="R17" s="8">
-        <v>0</v>
-      </c>
-      <c r="S17" s="8">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8">
-        <v>0</v>
-      </c>
-      <c r="U17" s="8">
-        <v>0</v>
-      </c>
-      <c r="V17" s="8">
-        <v>0</v>
-      </c>
-      <c r="W17" s="8">
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10">
+        <v>0</v>
+      </c>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10">
         <v>8</v>
       </c>
-      <c r="X17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="8">
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10">
         <v>16</v>
       </c>
-      <c r="AA17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="8">
-        <v>266</v>
-      </c>
-      <c r="AD17" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="8">
-        <v>150</v>
-      </c>
-      <c r="AG17" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="8">
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10">
+        <v>268</v>
+      </c>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10">
+        <v>152</v>
+      </c>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10">
         <v>116</v>
       </c>
-      <c r="AJ17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="8">
-        <v>0</v>
-      </c>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="38">
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
@@ -20680,6 +20631,17 @@
     <mergeCell ref="AF7:AH7"/>
     <mergeCell ref="AI7:AK7"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AK17"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:AK4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
